--- a/sequence-function-demo.xlsx
+++ b/sequence-function-demo.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D156EC2-5A08-4FBA-80A4-6BFC3EDF8495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B2841A-C3D9-4E95-B1CA-6CB15F5DC4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{74D314D4-F33F-4B97-8410-5A8AC1D79F61}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="2" xr2:uid="{74D314D4-F33F-4B97-8410-5A8AC1D79F61}"/>
   </bookViews>
   <sheets>
-    <sheet name="skus" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="dates" sheetId="1" r:id="rId3"/>
+    <sheet name="inventory" sheetId="2" r:id="rId1"/>
+    <sheet name="budget" sheetId="1" r:id="rId2"/>
+    <sheet name="sales" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Select start date</t>
   </si>
@@ -93,23 +93,28 @@
   </si>
   <si>
     <t>Elf Elixirs</t>
+  </si>
+  <si>
+    <t>Select number of time periods</t>
+  </si>
+  <si>
+    <t>Top N:</t>
+  </si>
+  <si>
+    <t>Sales results:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -124,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -132,36 +137,41 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -172,6 +182,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1AB518E2-68A2-41A7-B689-43454168469B}" name="Table1" displayName="Table1" ref="A1:B9" totalsRowShown="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:B9" xr:uid="{1AB518E2-68A2-41A7-B689-43454168469B}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{25860D95-53E5-461C-A095-23A76FE4B681}" name="Product"/>
+    <tableColumn id="2" xr3:uid="{D2F5A92F-78C4-44F3-BD65-59D1BDB5F55D}" name="Sales" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -493,13 +514,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04B269E-8EC3-4E46-AC17-EB21DD6A3B9D}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A1" cm="1">
-        <f t="array" ref="A1:A100">_xlfn.SEQUENCE(100, , 101)</f>
+        <f t="array" ref="A1:A100">_xlfn.SEQUENCE(100, ,101)</f>
         <v>101</v>
       </c>
     </row>
@@ -1004,88 +1027,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F97ECFF-5BAE-4DA8-8C3F-C2D2D48FD429}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335D5538-C85A-4670-B0C8-484A20BFEEE7}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="14.20703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" cm="1">
+        <f t="array" ref="C1:C6">EDATE(A2 - 1, _xlfn.SEQUENCE(A5))</f>
+        <v>45503</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A2" s="1">
+        <v>45474</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="C3" s="1">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A5">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>1220</v>
+      <c r="C5" s="1">
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="C6" s="1">
+        <v>45656</v>
       </c>
     </row>
   </sheetData>
@@ -1094,87 +1091,108 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335D5538-C85A-4670-B0C8-484A20BFEEE7}">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F97ECFF-5BAE-4DA8-8C3F-C2D2D48FD429}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.20703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" cm="1">
-        <f t="array" ref="C1:C12">EDATE(A2 - 1, _xlfn.SEQUENCE(12))</f>
-        <v>45322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A2" s="1">
-        <v>45292</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="C3" s="1">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="C4" s="1">
-        <v>45412</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="C5" s="1">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="C6" s="1">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="C7" s="1">
-        <v>45504</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="C8" s="1">
-        <v>45535</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="C9" s="1">
-        <v>45565</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="C10" s="1">
-        <v>45596</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="C11" s="1">
-        <v>45626</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="C12" s="1">
-        <v>45657</v>
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>950</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1200</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" cm="1">
+        <f t="array" ref="E3">SUM(LARGE(Table1[Sales],_xlfn.SEQUENCE(D3)))</f>
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1220</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/sequence-function-demo.xlsx
+++ b/sequence-function-demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B2841A-C3D9-4E95-B1CA-6CB15F5DC4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D84279-5401-45C1-B489-65C48BC34854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="2" xr2:uid="{74D314D4-F33F-4B97-8410-5A8AC1D79F61}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{74D314D4-F33F-4B97-8410-5A8AC1D79F61}"/>
   </bookViews>
   <sheets>
     <sheet name="inventory" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Select start date</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Sales results:</t>
+  </si>
+  <si>
+    <t>% of sales:</t>
   </si>
 </sst>
 </file>
@@ -109,8 +112,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -141,34 +144,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
       </border>
     </dxf>
   </dxfs>
@@ -185,7 +189,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1AB518E2-68A2-41A7-B689-43454168469B}" name="Table1" displayName="Table1" ref="A1:B9" totalsRowShown="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1AB518E2-68A2-41A7-B689-43454168469B}" name="sales" displayName="sales" ref="A1:B9" totalsRowShown="0" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:B9" xr:uid="{1AB518E2-68A2-41A7-B689-43454168469B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{25860D95-53E5-461C-A095-23A76FE4B681}" name="Product"/>
@@ -514,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04B269E-8EC3-4E46-AC17-EB21DD6A3B9D}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1092,19 +1096,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F97ECFF-5BAE-4DA8-8C3F-C2D2D48FD429}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="14.20703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="4"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1112,7 +1117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1130,11 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1137,11 +1145,15 @@
         <v>3</v>
       </c>
       <c r="E3" s="3" cm="1">
-        <f t="array" ref="E3">SUM(LARGE(Table1[Sales],_xlfn.SEQUENCE(D3)))</f>
+        <f t="array" ref="E3">SUM(LARGE(sales[Sales],_xlfn.SEQUENCE(D3)))</f>
         <v>3570</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="F3" s="5">
+        <f>E3 / SUM(sales[Sales])</f>
+        <v>0.47253474520185307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1149,7 +1161,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1157,7 +1169,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1165,7 +1177,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1173,7 +1185,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1181,7 +1193,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
         <v>10</v>
       </c>
